--- a/terms/tibiaTerms.xlsx
+++ b/terms/tibiaTerms.xlsx
@@ -5,17 +5,21 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meghanabalk/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meghanabalk/GitHub/futres/fovt/terms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF2AD2E4-D3F7-A444-A1F8-80EB878B91EB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C3FBEDF-8E50-374F-BCF8-FAB54DFAA370}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2780" yWindow="3500" windowWidth="25640" windowHeight="13640" xr2:uid="{17D4BD06-5EB4-7643-BBF0-5B7D2EA6610D}"/>
+    <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="16620" activeTab="1" xr2:uid="{17D4BD06-5EB4-7643-BBF0-5B7D2EA6610D}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="trait" sheetId="1" r:id="rId1"/>
+    <sheet name="axis" sheetId="2" r:id="rId2"/>
+    <sheet name="circumferences" sheetId="6" r:id="rId3"/>
+    <sheet name="AB" sheetId="3" r:id="rId4"/>
+    <sheet name="structures" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="82">
   <si>
     <t>FOVT STATUS</t>
   </si>
@@ -160,13 +164,124 @@
   </si>
   <si>
     <t>Tibia SD, tibia smallest breadth of the diaphysis, tibia M3, minimal breadth; Tibia smallest diameter</t>
+  </si>
+  <si>
+    <t>Trait</t>
+  </si>
+  <si>
+    <t>Axis</t>
+  </si>
+  <si>
+    <t>Structure</t>
+  </si>
+  <si>
+    <t>Pattern name</t>
+  </si>
+  <si>
+    <t>Point A</t>
+  </si>
+  <si>
+    <t>Point B</t>
+  </si>
+  <si>
+    <t>Label</t>
+  </si>
+  <si>
+    <t>Parent</t>
+  </si>
+  <si>
+    <t>Text definition</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Subclass of</t>
+  </si>
+  <si>
+    <t>Equivalent to</t>
+  </si>
+  <si>
+    <t>Disjoint with</t>
+  </si>
+  <si>
+    <t>Ignore</t>
+  </si>
+  <si>
+    <t>Annotations</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>Reference</t>
+  </si>
+  <si>
+    <t>proximal-distal</t>
+  </si>
+  <si>
+    <t>tibia</t>
+  </si>
+  <si>
+    <t>medial side' and ('part of' some tibia)</t>
+  </si>
+  <si>
+    <t>medial-lateral</t>
+  </si>
+  <si>
+    <t>anterior-posterior</t>
+  </si>
+  <si>
+    <t>diaphysis of tibia</t>
+  </si>
+  <si>
+    <t>lateralmost part of' some 'lateral condyle of tibia'</t>
+  </si>
+  <si>
+    <t>medialmost part of' some 'medial condyle of tibia'</t>
+  </si>
+  <si>
+    <t>proximal epiphsis of tibia</t>
+  </si>
+  <si>
+    <t>across the medial and lateral condyles</t>
+  </si>
+  <si>
+    <t>distal epiphysis of tibia</t>
+  </si>
+  <si>
+    <t>lateral side' and ('part of' some tibia)</t>
+  </si>
+  <si>
+    <t>circumference</t>
+  </si>
+  <si>
+    <t>('part of' some 'diaphysis of tibia')</t>
+  </si>
+  <si>
+    <t>fossa digitalis</t>
+  </si>
+  <si>
+    <t>tibial tuberosity</t>
+  </si>
+  <si>
+    <t>tubercle' and ('part of' some 'proximal epiphysis of tibia')</t>
+  </si>
+  <si>
+    <t>The tibial tuberosity is on the anterior side of a tibia and is where a patella ligament attaches.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -185,6 +300,19 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -207,11 +335,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -528,13 +660,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D5EE675-E2D6-2448-8601-BDD7ED1DCE47}">
   <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="10.83203125" style="2"/>
+    <col min="1" max="2" width="10.83203125" style="2"/>
+    <col min="3" max="3" width="21.6640625" style="2" customWidth="1"/>
+    <col min="4" max="5" width="0" style="2" hidden="1" customWidth="1"/>
+    <col min="6" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
@@ -664,6 +799,9 @@
       <c r="E7" s="3" t="s">
         <v>36</v>
       </c>
+      <c r="F7" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="G7" s="2">
         <v>6</v>
       </c>
@@ -748,9 +886,6 @@
       <c r="E13" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F13" s="2" t="s">
-        <v>41</v>
-      </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E14" s="1"/>
@@ -772,6 +907,299 @@
     </row>
     <row r="34" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E34" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6562B7E4-3E73-3C45-B892-4F9F1A3C88FF}">
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="25.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" t="s">
+        <v>72</v>
+      </c>
+      <c r="E6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{626CAD3B-C867-7C4C-9787-960A98484F8F}">
+  <dimension ref="A2:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20EB3C19-2CDC-4D4E-A1EC-76E26E279CA8}">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{465F82CA-E608-2A46-8384-5DCBD6C14D4A}">
+  <dimension ref="A1:N2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="K1" t="s">
+        <v>60</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6" t="s">
+        <v>80</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/terms/tibiaTerms.xlsx
+++ b/terms/tibiaTerms.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meghanabalk/GitHub/futres/fovt/terms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C3FBEDF-8E50-374F-BCF8-FAB54DFAA370}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31F6EC2F-3CD9-4A42-8178-C71BB1FF9609}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="16620" activeTab="1" xr2:uid="{17D4BD06-5EB4-7643-BBF0-5B7D2EA6610D}"/>
+    <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="16620" xr2:uid="{17D4BD06-5EB4-7643-BBF0-5B7D2EA6610D}"/>
   </bookViews>
   <sheets>
     <sheet name="trait" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="85">
   <si>
     <t>FOVT STATUS</t>
   </si>
@@ -275,6 +275,15 @@
   </si>
   <si>
     <t>The tibial tuberosity is on the anterior side of a tibia and is where a patella ligament attaches.</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>mappings</t>
+  </si>
+  <si>
+    <t>anterior tibial tuberosity length</t>
   </si>
 </sst>
 </file>
@@ -658,10 +667,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D5EE675-E2D6-2448-8601-BDD7ED1DCE47}">
-  <dimension ref="A1:H34"/>
+  <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -672,7 +681,7 @@
     <col min="6" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -689,50 +698,64 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="B2" s="2" t="s">
+        <v>82</v>
+      </c>
       <c r="C2" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="3"/>
+      <c r="G2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="2">
+      <c r="H2" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="B3" s="2" t="s">
+        <v>82</v>
+      </c>
       <c r="C3" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G3" s="2">
+      <c r="F3" s="3"/>
+      <c r="H3" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="B4" s="2" t="s">
+        <v>82</v>
+      </c>
       <c r="C4" s="2" t="s">
         <v>14</v>
       </c>
@@ -742,17 +765,21 @@
       <c r="E4" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="3"/>
+      <c r="G4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="2">
+      <c r="H4" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="B5" s="2" t="s">
+        <v>82</v>
+      </c>
       <c r="C5" s="2" t="s">
         <v>16</v>
       </c>
@@ -762,14 +789,18 @@
       <c r="E5" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="G5" s="2">
+      <c r="F5" s="3"/>
+      <c r="H5" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="B6" s="2" t="s">
+        <v>82</v>
+      </c>
       <c r="C6" s="2" t="s">
         <v>19</v>
       </c>
@@ -779,17 +810,21 @@
       <c r="E6" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="3"/>
+      <c r="G6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G6" s="2">
+      <c r="H6" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="B7" s="2" t="s">
+        <v>82</v>
+      </c>
       <c r="C7" s="2" t="s">
         <v>21</v>
       </c>
@@ -799,17 +834,21 @@
       <c r="E7" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="3"/>
+      <c r="G7" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="B8" s="2" t="s">
+        <v>82</v>
+      </c>
       <c r="C8" s="2" t="s">
         <v>24</v>
       </c>
@@ -819,17 +858,21 @@
       <c r="E8" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="3"/>
+      <c r="G8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G8" s="2">
+      <c r="H8" s="2">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="B9" s="2" t="s">
+        <v>82</v>
+      </c>
       <c r="C9" s="2" t="s">
         <v>27</v>
       </c>
@@ -839,77 +882,103 @@
       <c r="E9" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="3"/>
+      <c r="G9" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G9" s="2">
+      <c r="H9" s="2">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>82</v>
+      </c>
       <c r="C10" s="2" t="s">
-        <v>28</v>
+        <v>84</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="G10" s="2">
+      <c r="F10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" s="2">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="B11" s="2" t="s">
+        <v>82</v>
+      </c>
       <c r="C11" s="2" t="s">
         <v>30</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F11" s="3"/>
+      <c r="G11" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="B12" s="2" t="s">
+        <v>82</v>
+      </c>
       <c r="C12" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="G12" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E13" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E14" s="1"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E15" s="1"/>
-    </row>
-    <row r="22" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="F15" s="1"/>
+    </row>
+    <row r="22" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E22" s="3"/>
-    </row>
-    <row r="30" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="F22" s="3"/>
+    </row>
+    <row r="30" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E30" s="1"/>
-    </row>
-    <row r="32" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="F30" s="1"/>
+    </row>
+    <row r="32" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E32" s="1"/>
-    </row>
-    <row r="33" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="F32" s="1"/>
+    </row>
+    <row r="33" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E33" s="1"/>
-    </row>
-    <row r="34" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="F33" s="1"/>
+    </row>
+    <row r="34" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -917,8 +986,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6562B7E4-3E73-3C45-B892-4F9F1A3C88FF}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1137,7 +1206,7 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/terms/tibiaTerms.xlsx
+++ b/terms/tibiaTerms.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meghanabalk/GitHub/futres/fovt/terms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31F6EC2F-3CD9-4A42-8178-C71BB1FF9609}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33D34C27-13DC-B440-9D3A-394BFE7BE88B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="16620" xr2:uid="{17D4BD06-5EB4-7643-BBF0-5B7D2EA6610D}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="90">
   <si>
     <t>FOVT STATUS</t>
   </si>
@@ -241,12 +241,6 @@
     <t>diaphysis of tibia</t>
   </si>
   <si>
-    <t>lateralmost part of' some 'lateral condyle of tibia'</t>
-  </si>
-  <si>
-    <t>medialmost part of' some 'medial condyle of tibia'</t>
-  </si>
-  <si>
     <t>proximal epiphsis of tibia</t>
   </si>
   <si>
@@ -284,6 +278,27 @@
   </si>
   <si>
     <t>anterior tibial tuberosity length</t>
+  </si>
+  <si>
+    <t>in oba</t>
+  </si>
+  <si>
+    <t>tibia diaphysis width</t>
+  </si>
+  <si>
+    <t>width and ('part of' some 'diaphysis of tibia')</t>
+  </si>
+  <si>
+    <t>tibia distal width</t>
+  </si>
+  <si>
+    <t>tibia proximal width</t>
+  </si>
+  <si>
+    <t>width and ('part of' some 'distal epiphysis of tibia')</t>
+  </si>
+  <si>
+    <t>width and ('part of' some 'proximal epiphysis of tibia')</t>
   </si>
 </sst>
 </file>
@@ -670,7 +685,7 @@
   <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="F12" sqref="F11:F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -698,7 +713,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>5</v>
@@ -712,10 +727,10 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>8</v>
+        <v>83</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>10</v>
@@ -736,7 +751,7 @@
         <v>8</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>11</v>
@@ -754,7 +769,7 @@
         <v>8</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>14</v>
@@ -778,7 +793,7 @@
         <v>8</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>16</v>
@@ -799,7 +814,7 @@
         <v>8</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>19</v>
@@ -823,7 +838,7 @@
         <v>8</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>21</v>
@@ -847,7 +862,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>24</v>
@@ -871,7 +886,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>27</v>
@@ -895,10 +910,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>84</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>37</v>
@@ -915,7 +930,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>30</v>
@@ -933,7 +948,7 @@
         <v>8</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>32</v>
@@ -943,18 +958,36 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>84</v>
+      </c>
       <c r="E13" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F13" s="1"/>
+      <c r="F13" s="1" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C14" s="2" t="s">
+        <v>86</v>
+      </c>
       <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
+      <c r="F14" s="1" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C15" s="2" t="s">
+        <v>87</v>
+      </c>
       <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
+      <c r="F15" s="1" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="22" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E22" s="3"/>
@@ -987,7 +1020,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1061,10 +1094,10 @@
         <v>67</v>
       </c>
       <c r="C6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -1075,7 +1108,7 @@
         <v>68</v>
       </c>
       <c r="C7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -1086,7 +1119,7 @@
         <v>67</v>
       </c>
       <c r="C8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -1097,18 +1130,18 @@
         <v>68</v>
       </c>
       <c r="C9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>28</v>
+        <v>82</v>
       </c>
       <c r="B10" t="s">
         <v>64</v>
       </c>
       <c r="C10" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -1119,7 +1152,7 @@
         <v>64</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -1145,10 +1178,10 @@
         <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -1161,7 +1194,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1181,20 +1214,12 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>71</v>
-      </c>
+      <c r="A2" s="2"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>21</v>
-      </c>
+      <c r="A3" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1257,17 +1282,17 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D2" t="s">
         <v>79</v>
-      </c>
-      <c r="D2" t="s">
-        <v>81</v>
       </c>
       <c r="F2" s="6"/>
       <c r="G2" s="6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/terms/tibiaTerms.xlsx
+++ b/terms/tibiaTerms.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meghanabalk/GitHub/futres/fovt/terms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33D34C27-13DC-B440-9D3A-394BFE7BE88B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9533A729-70F2-CF43-BA50-DAA8DAC3670B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="16620" xr2:uid="{17D4BD06-5EB4-7643-BBF0-5B7D2EA6610D}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="91">
   <si>
     <t>FOVT STATUS</t>
   </si>
@@ -299,6 +299,9 @@
   </si>
   <si>
     <t>width and ('part of' some 'proximal epiphysis of tibia')</t>
+  </si>
+  <si>
+    <t>Cantrull 2017</t>
   </si>
 </sst>
 </file>
@@ -682,10 +685,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D5EE675-E2D6-2448-8601-BDD7ED1DCE47}">
-  <dimension ref="A1:I34"/>
+  <dimension ref="A1:J34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F11:F12"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -696,7 +699,7 @@
     <col min="6" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -724,8 +727,11 @@
       <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>83</v>
       </c>
@@ -746,7 +752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -764,7 +770,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -788,7 +794,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -809,7 +815,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
@@ -833,7 +839,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
@@ -850,14 +856,14 @@
         <v>36</v>
       </c>
       <c r="F7" s="3"/>
-      <c r="G7" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="H7" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J7" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
@@ -881,7 +887,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -905,7 +911,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
@@ -925,7 +931,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>8</v>
       </c>
@@ -943,7 +949,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>8</v>
       </c>
@@ -957,7 +963,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>8</v>
       </c>
@@ -971,7 +977,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C14" s="2" t="s">
         <v>86</v>
       </c>
@@ -980,7 +986,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C15" s="2" t="s">
         <v>87</v>
       </c>

--- a/terms/tibiaTerms.xlsx
+++ b/terms/tibiaTerms.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meghanabalk/GitHub/futres/fovt/terms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9533A729-70F2-CF43-BA50-DAA8DAC3670B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BB0136D-5B36-EA4B-9267-3384C2A07673}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="16620" xr2:uid="{17D4BD06-5EB4-7643-BBF0-5B7D2EA6610D}"/>
+    <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="16620" activeTab="4" xr2:uid="{17D4BD06-5EB4-7643-BBF0-5B7D2EA6610D}"/>
   </bookViews>
   <sheets>
     <sheet name="trait" sheetId="1" r:id="rId1"/>
@@ -687,8 +687,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D5EE675-E2D6-2448-8601-BDD7ED1DCE47}">
   <dimension ref="A1:J34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1236,8 +1236,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{465F82CA-E608-2A46-8384-5DCBD6C14D4A}">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1303,5 +1303,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/terms/tibiaTerms.xlsx
+++ b/terms/tibiaTerms.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meghanabalk/GitHub/futres/fovt/terms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BB0136D-5B36-EA4B-9267-3384C2A07673}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BB7EBAF-45C6-2640-BBBB-812759B64421}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="16620" activeTab="4" xr2:uid="{17D4BD06-5EB4-7643-BBF0-5B7D2EA6610D}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="93">
   <si>
     <t>FOVT STATUS</t>
   </si>
@@ -302,6 +302,12 @@
   </si>
   <si>
     <t>Cantrull 2017</t>
+  </si>
+  <si>
+    <t>STATUS</t>
+  </si>
+  <si>
+    <t>on fovt-tibia; made pull request</t>
   </si>
 </sst>
 </file>
@@ -1234,70 +1240,76 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{465F82CA-E608-2A46-8384-5DCBD6C14D4A}">
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>60</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="M1" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="N1" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="O1" s="5" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B2" t="s">
         <v>76</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>77</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>79</v>
       </c>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="6"/>
+      <c r="H2" s="6" t="s">
         <v>78</v>
       </c>
     </row>

--- a/terms/tibiaTerms.xlsx
+++ b/terms/tibiaTerms.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meghanabalk/GitHub/futres/fovt/terms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BB7EBAF-45C6-2640-BBBB-812759B64421}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{509D7979-DFBE-7049-BAB8-91782DFF8CE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="16620" activeTab="4" xr2:uid="{17D4BD06-5EB4-7643-BBF0-5B7D2EA6610D}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="14400" windowHeight="16620" xr2:uid="{17D4BD06-5EB4-7643-BBF0-5B7D2EA6610D}"/>
   </bookViews>
   <sheets>
     <sheet name="trait" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="96">
   <si>
     <t>FOVT STATUS</t>
   </si>
@@ -308,6 +308,15 @@
   </si>
   <si>
     <t>on fovt-tibia; made pull request</t>
+  </si>
+  <si>
+    <t>taxon restriction</t>
+  </si>
+  <si>
+    <t>only in horse</t>
+  </si>
+  <si>
+    <t>usually in equids and lagomorphs</t>
   </si>
 </sst>
 </file>
@@ -691,10 +700,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D5EE675-E2D6-2448-8601-BDD7ED1DCE47}">
-  <dimension ref="A1:J34"/>
+  <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -705,7 +714,7 @@
     <col min="6" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -736,8 +745,11 @@
       <c r="J1" s="2" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K1" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>83</v>
       </c>
@@ -758,7 +770,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -776,7 +788,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -800,7 +812,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -821,7 +833,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
@@ -845,7 +857,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
@@ -869,7 +881,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
@@ -893,7 +905,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -916,8 +928,11 @@
       <c r="H9" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K9" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
@@ -937,7 +952,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>8</v>
       </c>
@@ -954,8 +969,11 @@
       <c r="G11" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K11" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>8</v>
       </c>
@@ -969,7 +987,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>8</v>
       </c>
@@ -983,7 +1001,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C14" s="2" t="s">
         <v>86</v>
       </c>
@@ -992,7 +1010,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C15" s="2" t="s">
         <v>87</v>
       </c>
@@ -1242,7 +1260,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{465F82CA-E608-2A46-8384-5DCBD6C14D4A}">
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>

--- a/terms/tibiaTerms.xlsx
+++ b/terms/tibiaTerms.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meghanabalk/GitHub/futres/fovt/terms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{509D7979-DFBE-7049-BAB8-91782DFF8CE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1543E3C3-B7EE-AD44-9981-46F68DEFF27E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="14400" windowHeight="16620" xr2:uid="{17D4BD06-5EB4-7643-BBF0-5B7D2EA6610D}"/>
+    <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="8320" xr2:uid="{17D4BD06-5EB4-7643-BBF0-5B7D2EA6610D}"/>
   </bookViews>
   <sheets>
     <sheet name="trait" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="98">
   <si>
     <t>FOVT STATUS</t>
   </si>
@@ -317,6 +317,12 @@
   </si>
   <si>
     <t>usually in equids and lagomorphs</t>
+  </si>
+  <si>
+    <t>tibia length</t>
+  </si>
+  <si>
+    <t>in FOVT</t>
   </si>
 </sst>
 </file>
@@ -702,8 +708,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D5EE675-E2D6-2448-8601-BDD7ED1DCE47}">
   <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -757,7 +763,7 @@
         <v>80</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>10</v>
+        <v>96</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>42</v>
@@ -989,7 +995,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>8</v>
+        <v>97</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>84</v>
@@ -1002,6 +1008,9 @@
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>97</v>
+      </c>
       <c r="C14" s="2" t="s">
         <v>86</v>
       </c>
@@ -1011,6 +1020,9 @@
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>97</v>
+      </c>
       <c r="C15" s="2" t="s">
         <v>87</v>
       </c>

--- a/terms/tibiaTerms.xlsx
+++ b/terms/tibiaTerms.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meghanabalk/GitHub/futres/fovt/terms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1543E3C3-B7EE-AD44-9981-46F68DEFF27E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71F5972F-A1E0-3F4E-AD4F-5532EF9A352C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="8320" xr2:uid="{17D4BD06-5EB4-7643-BBF0-5B7D2EA6610D}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="99">
   <si>
     <t>FOVT STATUS</t>
   </si>
@@ -323,6 +323,9 @@
   </si>
   <si>
     <t>in FOVT</t>
+  </si>
+  <si>
+    <t>Greatest breadth of facies articularis distalis tibia</t>
   </si>
 </sst>
 </file>
@@ -708,8 +711,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D5EE675-E2D6-2448-8601-BDD7ED1DCE47}">
   <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1029,6 +1032,11 @@
       <c r="E15" s="1"/>
       <c r="F15" s="1" t="s">
         <v>89</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F16" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="22" spans="5:6" x14ac:dyDescent="0.2">

--- a/terms/tibiaTerms.xlsx
+++ b/terms/tibiaTerms.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meghanabalk/GitHub/futres/fovt/terms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71F5972F-A1E0-3F4E-AD4F-5532EF9A352C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACC965C8-FCF5-984E-9CDE-76C63CD94888}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="8320" xr2:uid="{17D4BD06-5EB4-7643-BBF0-5B7D2EA6610D}"/>
+    <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="8320" activeTab="4" xr2:uid="{17D4BD06-5EB4-7643-BBF0-5B7D2EA6610D}"/>
   </bookViews>
   <sheets>
     <sheet name="trait" sheetId="1" r:id="rId1"/>
@@ -307,9 +307,6 @@
     <t>STATUS</t>
   </si>
   <si>
-    <t>on fovt-tibia; made pull request</t>
-  </si>
-  <si>
     <t>taxon restriction</t>
   </si>
   <si>
@@ -326,6 +323,9 @@
   </si>
   <si>
     <t>Greatest breadth of facies articularis distalis tibia</t>
+  </si>
+  <si>
+    <t>waiting for approval to merge</t>
   </si>
 </sst>
 </file>
@@ -711,7 +711,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D5EE675-E2D6-2448-8601-BDD7ED1DCE47}">
   <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
@@ -755,7 +755,7 @@
         <v>90</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
@@ -766,7 +766,7 @@
         <v>80</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>42</v>
@@ -938,7 +938,7 @@
         <v>8</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
@@ -979,7 +979,7 @@
         <v>29</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
@@ -998,7 +998,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>84</v>
@@ -1012,7 +1012,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>86</v>
@@ -1024,7 +1024,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>87</v>
@@ -1036,7 +1036,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="F16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="22" spans="5:6" x14ac:dyDescent="0.2">
@@ -1280,8 +1280,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{465F82CA-E608-2A46-8384-5DCBD6C14D4A}">
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1335,7 +1335,7 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="B2" t="s">
         <v>76</v>

--- a/terms/tibiaTerms.xlsx
+++ b/terms/tibiaTerms.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meghanabalk/GitHub/futres/fovt/terms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACC965C8-FCF5-984E-9CDE-76C63CD94888}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3F18D53-D9F3-2548-B59F-90469C6A627C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="8320" activeTab="4" xr2:uid="{17D4BD06-5EB4-7643-BBF0-5B7D2EA6610D}"/>
+    <workbookView xWindow="12380" yWindow="500" windowWidth="16420" windowHeight="12580" xr2:uid="{17D4BD06-5EB4-7643-BBF0-5B7D2EA6610D}"/>
   </bookViews>
   <sheets>
     <sheet name="trait" sheetId="1" r:id="rId1"/>
@@ -24,12 +24,19 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="99">
   <si>
     <t>FOVT STATUS</t>
   </si>
@@ -711,8 +718,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D5EE675-E2D6-2448-8601-BDD7ED1DCE47}">
   <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1000,6 +1007,9 @@
       <c r="A13" s="2" t="s">
         <v>96</v>
       </c>
+      <c r="B13" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="C13" s="2" t="s">
         <v>84</v>
       </c>
@@ -1014,6 +1024,9 @@
       <c r="A14" s="2" t="s">
         <v>96</v>
       </c>
+      <c r="B14" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="C14" s="2" t="s">
         <v>86</v>
       </c>
@@ -1025,6 +1038,9 @@
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>96</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>80</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>87</v>
@@ -1280,7 +1296,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{465F82CA-E608-2A46-8384-5DCBD6C14D4A}">
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
